--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb2-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb2-Ephb4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.519606</v>
+        <v>29.41996</v>
       </c>
       <c r="H2">
-        <v>124.558818</v>
+        <v>88.25988000000001</v>
       </c>
       <c r="I2">
-        <v>0.7305114279806179</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="J2">
-        <v>0.7630546295388221</v>
+        <v>0.66829493802317</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.52018166666667</v>
+        <v>26.07194833333334</v>
       </c>
       <c r="N2">
-        <v>103.560545</v>
+        <v>78.215845</v>
       </c>
       <c r="O2">
-        <v>0.7811694070883366</v>
+        <v>0.7595928012803946</v>
       </c>
       <c r="P2">
-        <v>0.8076479349223241</v>
+        <v>0.7818221335728009</v>
       </c>
       <c r="Q2">
-        <v>1433.264341848423</v>
+        <v>767.0356770887335</v>
       </c>
       <c r="R2">
-        <v>12899.37907663581</v>
+        <v>6903.3210937986</v>
       </c>
       <c r="S2">
-        <v>0.5706531790668734</v>
+        <v>0.4714944397828206</v>
       </c>
       <c r="T2">
-        <v>0.6162794957799487</v>
+        <v>0.5224877743011775</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.519606</v>
+        <v>29.41996</v>
       </c>
       <c r="H3">
-        <v>124.558818</v>
+        <v>88.25988000000001</v>
       </c>
       <c r="I3">
-        <v>0.7305114279806179</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="J3">
-        <v>0.7630546295388221</v>
+        <v>0.66829493802317</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>15.971694</v>
       </c>
       <c r="O3">
-        <v>0.1204763718863815</v>
+        <v>0.155109029208254</v>
       </c>
       <c r="P3">
-        <v>0.1245600404701547</v>
+        <v>0.1596482641062294</v>
       </c>
       <c r="Q3">
-        <v>221.046147344188</v>
+        <v>156.62886620408</v>
       </c>
       <c r="R3">
-        <v>1989.415326097692</v>
+        <v>1409.65979583672</v>
       </c>
       <c r="S3">
-        <v>0.0880093664646445</v>
+        <v>0.09627927582847998</v>
       </c>
       <c r="T3">
-        <v>0.09504611553629456</v>
+        <v>0.1066921267663792</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.519606</v>
+        <v>29.41996</v>
       </c>
       <c r="H4">
-        <v>124.558818</v>
+        <v>88.25988000000001</v>
       </c>
       <c r="I4">
-        <v>0.7305114279806179</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="J4">
-        <v>0.7630546295388221</v>
+        <v>0.66829493802317</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.346311500000001</v>
+        <v>2.927739</v>
       </c>
       <c r="N4">
-        <v>8.692623000000001</v>
+        <v>5.855478</v>
       </c>
       <c r="O4">
-        <v>0.09835422102528196</v>
+        <v>0.08529816951135136</v>
       </c>
       <c r="P4">
-        <v>0.06779202460752112</v>
+        <v>0.05852960232096958</v>
       </c>
       <c r="Q4">
-        <v>180.457141033269</v>
+        <v>86.13396427044</v>
       </c>
       <c r="R4">
-        <v>1082.742846199614</v>
+        <v>516.80378562264</v>
       </c>
       <c r="S4">
-        <v>0.07184888244910004</v>
+        <v>0.05294627934922835</v>
       </c>
       <c r="T4">
-        <v>0.05172901822257874</v>
+        <v>0.03911503695561316</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>21.551639</v>
       </c>
       <c r="I5">
-        <v>0.1263958572665066</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="J5">
-        <v>0.1320266053993819</v>
+        <v>0.1631868437822795</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.52018166666667</v>
+        <v>26.07194833333334</v>
       </c>
       <c r="N5">
-        <v>103.560545</v>
+        <v>78.215845</v>
       </c>
       <c r="O5">
-        <v>0.7811694070883366</v>
+        <v>0.7595928012803946</v>
       </c>
       <c r="P5">
-        <v>0.8076479349223241</v>
+        <v>0.7818221335728009</v>
       </c>
       <c r="Q5">
-        <v>247.9888311648061</v>
+        <v>187.2977395022172</v>
       </c>
       <c r="R5">
-        <v>2231.899480483255</v>
+        <v>1685.679655519955</v>
       </c>
       <c r="S5">
-        <v>0.098736576879299</v>
+        <v>0.1151313366470313</v>
       </c>
       <c r="T5">
-        <v>0.1066310152056154</v>
+        <v>0.1275830863768731</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>21.551639</v>
       </c>
       <c r="I6">
-        <v>0.1263958572665066</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="J6">
-        <v>0.1320266053993819</v>
+        <v>0.1631868437822795</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,10 +812,10 @@
         <v>15.971694</v>
       </c>
       <c r="O6">
-        <v>0.1204763718863815</v>
+        <v>0.155109029208254</v>
       </c>
       <c r="P6">
-        <v>0.1245600404701547</v>
+        <v>0.1596482641062294</v>
       </c>
       <c r="Q6">
         <v>38.24624258960733</v>
@@ -824,10 +824,10 @@
         <v>344.216183306466</v>
       </c>
       <c r="S6">
-        <v>0.01522771430493764</v>
+        <v>0.02350984610263265</v>
       </c>
       <c r="T6">
-        <v>0.01644523931168415</v>
+        <v>0.02605249633481535</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>21.551639</v>
       </c>
       <c r="I7">
-        <v>0.1263958572665066</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="J7">
-        <v>0.1320266053993819</v>
+        <v>0.1631868437822795</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.346311500000001</v>
+        <v>2.927739</v>
       </c>
       <c r="N7">
-        <v>8.692623000000001</v>
+        <v>5.855478</v>
       </c>
       <c r="O7">
-        <v>0.09835422102528196</v>
+        <v>0.08529816951135136</v>
       </c>
       <c r="P7">
-        <v>0.06779202460752112</v>
+        <v>0.05852960232096958</v>
       </c>
       <c r="Q7">
-        <v>31.2233788098495</v>
+        <v>21.032524671407</v>
       </c>
       <c r="R7">
-        <v>187.340272859097</v>
+        <v>126.195148028442</v>
       </c>
       <c r="S7">
-        <v>0.01243156608226998</v>
+        <v>0.01292862735512131</v>
       </c>
       <c r="T7">
-        <v>0.008950350882082382</v>
+        <v>0.009551261070591007</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.229894</v>
+        <v>0.3873096666666667</v>
       </c>
       <c r="H8">
-        <v>0.6896819999999999</v>
+        <v>1.161929</v>
       </c>
       <c r="I8">
-        <v>0.004044840748830231</v>
+        <v>0.008171692087327698</v>
       </c>
       <c r="J8">
-        <v>0.004225032410066655</v>
+        <v>0.008798009571759262</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.52018166666667</v>
+        <v>26.07194833333334</v>
       </c>
       <c r="N8">
-        <v>103.560545</v>
+        <v>78.215845</v>
       </c>
       <c r="O8">
-        <v>0.7811694070883366</v>
+        <v>0.7595928012803946</v>
       </c>
       <c r="P8">
-        <v>0.8076479349223241</v>
+        <v>0.7818221335728009</v>
       </c>
       <c r="Q8">
-        <v>7.935982644076665</v>
+        <v>10.09791761833389</v>
       </c>
       <c r="R8">
-        <v>71.42384379668998</v>
+        <v>90.881258565005</v>
       </c>
       <c r="S8">
-        <v>0.003159705849530455</v>
+        <v>0.006207158483814082</v>
       </c>
       <c r="T8">
-        <v>0.003412338700970224</v>
+        <v>0.006878478614586751</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.229894</v>
+        <v>0.3873096666666667</v>
       </c>
       <c r="H9">
-        <v>0.6896819999999999</v>
+        <v>1.161929</v>
       </c>
       <c r="I9">
-        <v>0.004044840748830231</v>
+        <v>0.008171692087327698</v>
       </c>
       <c r="J9">
-        <v>0.004225032410066655</v>
+        <v>0.008798009571759262</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,22 +998,22 @@
         <v>15.971694</v>
       </c>
       <c r="O9">
-        <v>0.1204763718863815</v>
+        <v>0.155109029208254</v>
       </c>
       <c r="P9">
-        <v>0.1245600404701547</v>
+        <v>0.1596482641062294</v>
       </c>
       <c r="Q9">
-        <v>1.223932206812</v>
+        <v>2.061997159747333</v>
       </c>
       <c r="R9">
-        <v>11.015389861308</v>
+        <v>18.557974437726</v>
       </c>
       <c r="S9">
-        <v>0.0004873077382772605</v>
+        <v>0.00126750322665417</v>
       </c>
       <c r="T9">
-        <v>0.0005262702079856177</v>
+        <v>0.001404586955721357</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.229894</v>
+        <v>0.3873096666666667</v>
       </c>
       <c r="H10">
-        <v>0.6896819999999999</v>
+        <v>1.161929</v>
       </c>
       <c r="I10">
-        <v>0.004044840748830231</v>
+        <v>0.008171692087327698</v>
       </c>
       <c r="J10">
-        <v>0.004225032410066655</v>
+        <v>0.008798009571759262</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.346311500000001</v>
+        <v>2.927739</v>
       </c>
       <c r="N10">
-        <v>8.692623000000001</v>
+        <v>5.855478</v>
       </c>
       <c r="O10">
-        <v>0.09835422102528196</v>
+        <v>0.08529816951135136</v>
       </c>
       <c r="P10">
-        <v>0.06779202460752112</v>
+        <v>0.05852960232096958</v>
       </c>
       <c r="Q10">
-        <v>0.999190935981</v>
+        <v>1.133941616177</v>
       </c>
       <c r="R10">
-        <v>5.995145615886</v>
+        <v>6.803649697061999</v>
       </c>
       <c r="S10">
-        <v>0.0003978271610225155</v>
+        <v>0.0006970303768594466</v>
       </c>
       <c r="T10">
-        <v>0.000286423501110813</v>
+        <v>0.0005149440014511536</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.2719705</v>
+        <v>10.122265</v>
       </c>
       <c r="H11">
-        <v>14.543941</v>
+        <v>20.24453</v>
       </c>
       <c r="I11">
-        <v>0.1279457602316344</v>
+        <v>0.2135656295858028</v>
       </c>
       <c r="J11">
-        <v>0.08909703616318426</v>
+        <v>0.153289545846405</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.52018166666667</v>
+        <v>26.07194833333334</v>
       </c>
       <c r="N11">
-        <v>103.560545</v>
+        <v>78.215845</v>
       </c>
       <c r="O11">
-        <v>0.7811694070883366</v>
+        <v>0.7595928012803946</v>
       </c>
       <c r="P11">
-        <v>0.8076479349223241</v>
+        <v>0.7818221335728009</v>
       </c>
       <c r="Q11">
-        <v>251.0297427346408</v>
+        <v>263.9071700963083</v>
       </c>
       <c r="R11">
-        <v>1506.178456407845</v>
+        <v>1583.44302057785</v>
       </c>
       <c r="S11">
-        <v>0.09994731365961229</v>
+        <v>0.1622229148342911</v>
       </c>
       <c r="T11">
-        <v>0.0719590372648954</v>
+        <v>0.119845159788042</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.2719705</v>
+        <v>10.122265</v>
       </c>
       <c r="H12">
-        <v>14.543941</v>
+        <v>20.24453</v>
       </c>
       <c r="I12">
-        <v>0.1279457602316344</v>
+        <v>0.2135656295858028</v>
       </c>
       <c r="J12">
-        <v>0.08909703616318426</v>
+        <v>0.153289545846405</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1184,22 +1184,22 @@
         <v>15.971694</v>
       </c>
       <c r="O12">
-        <v>0.1204763718863815</v>
+        <v>0.155109029208254</v>
       </c>
       <c r="P12">
-        <v>0.1245600404701547</v>
+        <v>0.1596482641062294</v>
       </c>
       <c r="Q12">
-        <v>38.715229201009</v>
+        <v>53.88990638896999</v>
       </c>
       <c r="R12">
-        <v>232.291375206054</v>
+        <v>323.3394383338199</v>
       </c>
       <c r="S12">
-        <v>0.01541444099095218</v>
+        <v>0.03312595747730345</v>
       </c>
       <c r="T12">
-        <v>0.01109793043025707</v>
+        <v>0.02447240990001083</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.2719705</v>
+        <v>10.122265</v>
       </c>
       <c r="H13">
-        <v>14.543941</v>
+        <v>20.24453</v>
       </c>
       <c r="I13">
-        <v>0.1279457602316344</v>
+        <v>0.2135656295858028</v>
       </c>
       <c r="J13">
-        <v>0.08909703616318426</v>
+        <v>0.153289545846405</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.346311500000001</v>
+        <v>2.927739</v>
       </c>
       <c r="N13">
-        <v>8.692623000000001</v>
+        <v>5.855478</v>
       </c>
       <c r="O13">
-        <v>0.09835422102528196</v>
+        <v>0.08529816951135136</v>
       </c>
       <c r="P13">
-        <v>0.06779202460752112</v>
+        <v>0.05852960232096958</v>
       </c>
       <c r="Q13">
-        <v>31.60624901181075</v>
+        <v>29.63535000883499</v>
       </c>
       <c r="R13">
-        <v>126.424996047243</v>
+        <v>118.54140003534</v>
       </c>
       <c r="S13">
-        <v>0.0125840055810699</v>
+        <v>0.01821675727420828</v>
       </c>
       <c r="T13">
-        <v>0.006040068468031787</v>
+        <v>0.008971976158352119</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6310036666666666</v>
+        <v>0.2830933333333334</v>
       </c>
       <c r="H14">
-        <v>1.893011</v>
+        <v>0.84928</v>
       </c>
       <c r="I14">
-        <v>0.01110211377241086</v>
+        <v>0.005972873261555284</v>
       </c>
       <c r="J14">
-        <v>0.011596696488545</v>
+        <v>0.006430662776386256</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.52018166666667</v>
+        <v>26.07194833333334</v>
       </c>
       <c r="N14">
-        <v>103.560545</v>
+        <v>78.215845</v>
       </c>
       <c r="O14">
-        <v>0.7811694070883366</v>
+        <v>0.7595928012803946</v>
       </c>
       <c r="P14">
-        <v>0.8076479349223241</v>
+        <v>0.7818221335728009</v>
       </c>
       <c r="Q14">
-        <v>21.78236120566611</v>
+        <v>7.380794760177779</v>
       </c>
       <c r="R14">
-        <v>196.041250850995</v>
+        <v>66.42715284160001</v>
       </c>
       <c r="S14">
-        <v>0.008672631633021446</v>
+        <v>0.004536951532437545</v>
       </c>
       <c r="T14">
-        <v>0.009366047970894334</v>
+        <v>0.005027634492121494</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6310036666666666</v>
+        <v>0.2830933333333334</v>
       </c>
       <c r="H15">
-        <v>1.893011</v>
+        <v>0.84928</v>
       </c>
       <c r="I15">
-        <v>0.01110211377241086</v>
+        <v>0.005972873261555284</v>
       </c>
       <c r="J15">
-        <v>0.011596696488545</v>
+        <v>0.006430662776386256</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>15.971694</v>
       </c>
       <c r="O15">
-        <v>0.1204763718863815</v>
+        <v>0.155109029208254</v>
       </c>
       <c r="P15">
-        <v>0.1245600404701547</v>
+        <v>0.1596482641062294</v>
       </c>
       <c r="Q15">
-        <v>3.359399158959333</v>
+        <v>1.507160031146667</v>
       </c>
       <c r="R15">
-        <v>30.234592430634</v>
+        <v>13.56444028032</v>
       </c>
       <c r="S15">
-        <v>0.001337542387569888</v>
+        <v>0.000926446573183778</v>
       </c>
       <c r="T15">
-        <v>0.001444484983933265</v>
+        <v>0.001026644149302611</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6310036666666666</v>
+        <v>0.2830933333333334</v>
       </c>
       <c r="H16">
-        <v>1.893011</v>
+        <v>0.84928</v>
       </c>
       <c r="I16">
-        <v>0.01110211377241086</v>
+        <v>0.005972873261555284</v>
       </c>
       <c r="J16">
-        <v>0.011596696488545</v>
+        <v>0.006430662776386256</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.346311500000001</v>
+        <v>2.927739</v>
       </c>
       <c r="N16">
-        <v>8.692623000000001</v>
+        <v>5.855478</v>
       </c>
       <c r="O16">
-        <v>0.09835422102528196</v>
+        <v>0.08529816951135136</v>
       </c>
       <c r="P16">
-        <v>0.06779202460752112</v>
+        <v>0.05852960232096958</v>
       </c>
       <c r="Q16">
-        <v>2.7425384929755</v>
+        <v>0.82882339264</v>
       </c>
       <c r="R16">
-        <v>16.455230957853</v>
+        <v>4.97294035584</v>
       </c>
       <c r="S16">
-        <v>0.001091939751819524</v>
+        <v>0.0005094751559339606</v>
       </c>
       <c r="T16">
-        <v>0.0007861635337173962</v>
+        <v>0.0003763841349621497</v>
       </c>
     </row>
   </sheetData>
